--- a/tables details.xlsx
+++ b/tables details.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my project\portfolio Analyzer\Portfolio_Analyzer_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CB1A44-C315-4CD5-82A7-5EC5E45074CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468258FE-E7BF-4E85-B1D5-CFAB81493880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transaction" sheetId="1" r:id="rId1"/>
     <sheet name="broker" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Stock" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Schema</t>
   </si>
@@ -126,13 +126,94 @@
   </si>
   <si>
     <t>fyers</t>
+  </si>
+  <si>
+    <t>FYRS</t>
+  </si>
+  <si>
+    <t>UPSTK</t>
+  </si>
+  <si>
+    <t>Stock_id</t>
+  </si>
+  <si>
+    <t>MSUMI</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>TRIDENT</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>SUZLON</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB</t>
+  </si>
+  <si>
+    <t>ADANIPOWER</t>
+  </si>
+  <si>
+    <t>MAHLOG</t>
+  </si>
+  <si>
+    <t>JSWINFRA</t>
+  </si>
+  <si>
+    <t>ELECON</t>
+  </si>
+  <si>
+    <t>CGPOWER</t>
+  </si>
+  <si>
+    <t>MOTILALOFS</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>AJANTSOYA</t>
+  </si>
+  <si>
+    <t>SHREEGLOBAL</t>
+  </si>
+  <si>
+    <t>TAJGVK</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +253,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,17 +292,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +603,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C14"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +751,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,13 +777,17 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -691,12 +800,385 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9235AB27-59AB-456C-83D4-83D6F2FBC7B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="str">
+        <f>_xlfn.CONCAT(MID(B2,1,3),"1")</f>
+        <v>MSU1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("{'","stock_id':'",TRIM(A2),"','symbol':'",TRIM(B2),"','desc':'",C2,"'},")</f>
+        <v>{'stock_id':'MSU1','symbol':'MSUMI','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="str">
+        <f t="shared" ref="A3:A23" si="0">_xlfn.CONCAT(MID(B3,1,3),"1")</f>
+        <v>AJA1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F25" si="1">_xlfn.CONCAT("{'","stock_id':'",TRIM(A3),"','symbol':'",TRIM(B3),"','desc':'",C3,"'},")</f>
+        <v>{'stock_id':'AJA1','symbol':'AJANTSOYA','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SHR1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'SHR1','symbol':'SHREEGLOBAL','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TAJ1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'TAJ1','symbol':'TAJGVK','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ITC1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'ITC1','symbol':'ITC','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TRI1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'TRI1','symbol':'TRIDENT','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TAT1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'TAT1','symbol':'TATAMOTORS','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ARE1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'ARE1','symbol':'ARE&amp;M','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>VBL1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'VBL1','symbol':'VBL','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SUZ1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'SUZ1','symbol':'SUZLON','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>IRF1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'IRF1','symbol':'IRFC','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ACE1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'ACE1','symbol':'ACE','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>IEX1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'IEX1','symbol':'IEX','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OIL1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'OIL1','symbol':'OIL','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>IDF1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'IDF1','symbol':'IDFCFIRSTB','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ADA1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'ADA1','symbol':'ADANIPOWER','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>MAH1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'MAH1','symbol':'MAHLOG','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>JSW1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'JSW1','symbol':'JSWINFRA','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ELE1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'ELE1','symbol':'ELECON','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>CGP1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'CGP1','symbol':'CGPOWER','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>MOT1</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'MOT1','symbol':'MOTILALOFS','desc':'NA'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ONG1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>{'stock_id':'ONG1','symbol':'ONGC','desc':'NA'},</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>